--- a/IRU/PPC/Patentes municipales 4de4 2021.xlsx
+++ b/IRU/PPC/Patentes municipales 4de4 2021.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FileServer\VIAR\MADELEN\IMPUESTOS\PATENTES\PATENTES MUNICIPALES\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Robot Viar\IRU\PPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E905E684-E46E-40DB-BA4E-9703823806D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="18780" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,17 +23,27 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja4!$A$1:$I$83</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Madelen</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0" shapeId="0">
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0">
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -133,12 +144,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Madelen</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0" shapeId="0">
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0">
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -239,12 +250,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Madelen</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -268,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -292,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0" shapeId="0">
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -316,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0">
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -758,11 +769,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,8 +830,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,12 +888,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1014,39 +1042,83 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,6 +1213,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1176,6 +1265,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1351,1574 +1457,2362 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="2"/>
-    <col min="9" max="9" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="9.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="15" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="49"/>
+    <col min="9" max="9" width="11.42578125" style="78"/>
     <col min="10" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="66"/>
+      <c r="I1" s="76" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="68">
         <v>4740</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="68">
         <v>7935</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="69">
         <f>+(C2/B2)-1</f>
         <v>0.67405063291139244</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="65">
         <v>16615</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="65">
         <v>27872.51</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="68">
         <f>+(F2/E2)-1</f>
         <v>0.67755100812518809</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="58">
         <f>+C2*4/12</f>
         <v>2645</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="68">
         <v>1137.6300000000001</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="70">
         <v>3907.16</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="69">
         <f t="shared" ref="D3:D66" si="0">+(C3/B3)-1</f>
         <v>2.4344734228176117</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="65">
         <v>4006.68</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="65">
         <v>13775.07</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="68">
         <f t="shared" ref="G3:G66" si="1">+(F3/E3)-1</f>
         <v>2.4380259965857021</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="58">
         <f t="shared" ref="I3:I66" si="2">+C3*4/12</f>
         <v>1302.3866666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="68">
         <v>1137.6300000000001</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="70">
         <v>3907.16</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="69">
         <f t="shared" si="0"/>
         <v>2.4344734228176117</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="65">
         <v>4006.68</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="65">
         <v>13775.07</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="68">
         <f t="shared" si="1"/>
         <v>2.4380259965857021</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="58">
         <f t="shared" si="2"/>
         <v>1302.3866666666665</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="68">
         <v>1040.47</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="70">
         <v>3166.68</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="69">
         <f t="shared" si="0"/>
         <v>2.043509183349832</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="65">
         <v>3666.63</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="65">
         <v>11183.39</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="68">
         <f t="shared" si="1"/>
         <v>2.0500459550050043</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="58">
         <f t="shared" si="2"/>
         <v>1055.56</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="46">
-        <v>250</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="41">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="79">
+        <v>250</v>
+      </c>
+      <c r="G6" s="68"/>
+      <c r="I6" s="58">
         <f>+F6/12</f>
         <v>20.833333333333332</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="46">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="79">
         <v>150</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="41">
+      <c r="G7" s="68"/>
+      <c r="I7" s="58">
         <f>+F7/12</f>
         <v>12.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="68">
         <v>7338.07</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="68">
         <v>12797.2</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="69">
         <f t="shared" si="0"/>
         <v>0.74394629650575705</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="65">
         <v>25708.2</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="65">
         <v>44890.18</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="68">
         <f t="shared" si="1"/>
         <v>0.74614247594152827</v>
       </c>
-      <c r="I8" s="5">
+      <c r="H8" s="49"/>
+      <c r="I8" s="58">
         <f t="shared" si="2"/>
         <v>4265.7333333333336</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="68">
         <v>7338.07</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="68">
         <v>12797.200999999999</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="69">
         <f t="shared" si="0"/>
         <v>0.74394643278137162</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="65">
         <v>25708.2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="65">
         <v>44890.18</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="68">
         <f t="shared" si="1"/>
         <v>0.74614247594152827</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="58">
         <f t="shared" si="2"/>
         <v>4265.7336666666661</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="68">
         <v>7338.07</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="68">
         <v>12797.2</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="69">
         <f t="shared" si="0"/>
         <v>0.74394629650575705</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="65">
         <v>25708.2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="65">
         <v>44890.18</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="68">
         <f t="shared" si="1"/>
         <v>0.74614247594152827</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="58">
         <f t="shared" si="2"/>
         <v>4265.7333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="68">
         <v>7338.07</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="68">
         <v>12797.2</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="69">
         <f t="shared" si="0"/>
         <v>0.74394629650575705</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="65">
         <v>25708.2</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="65">
         <v>44890.18</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="68">
         <f t="shared" si="1"/>
         <v>0.74614247594152827</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="58">
         <f t="shared" si="2"/>
         <v>4265.7333333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="68">
         <v>2024.19</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="68">
         <v>1821.77</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="69">
         <f t="shared" si="0"/>
         <v>-0.1000004940247704</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="65">
         <v>7109.64</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="65">
         <v>6476.19</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="68">
         <f t="shared" si="1"/>
         <v>-8.9097338261853065E-2</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="58">
         <f t="shared" si="2"/>
         <v>607.25666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="68">
         <v>4138.2299999999996</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="68">
         <v>2979.52</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="69">
         <f t="shared" si="0"/>
         <v>-0.28000135323556197</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="65">
         <v>16577.900000000001</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="65">
         <v>10528.32</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="68">
         <f t="shared" si="1"/>
         <v>-0.36491835515958004</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="58">
         <f t="shared" si="2"/>
         <v>993.17333333333329</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="68">
         <v>8153.41</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="68">
         <v>13756.99</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="69">
         <f t="shared" si="0"/>
         <v>0.68726827180284067</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="65">
         <v>28561.9</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="65">
         <v>48249.46</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="68">
         <f t="shared" si="1"/>
         <v>0.68929447970898283</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="58">
         <f t="shared" si="2"/>
         <v>4585.663333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="68">
         <v>8153.41</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="68">
         <v>13756.99</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="69">
         <f t="shared" si="0"/>
         <v>0.68726827180284067</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="65">
         <v>28561.9</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="65">
         <v>48249.46</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="68">
         <f t="shared" si="1"/>
         <v>0.68929447970898283</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="58">
         <f t="shared" si="2"/>
         <v>4585.663333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="68">
         <v>8153.41</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="68">
         <v>13756.99</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="69">
         <f t="shared" si="0"/>
         <v>0.68726827180284067</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="65">
         <v>28561.9</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="65">
         <v>48249.46</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="68">
         <f t="shared" si="1"/>
         <v>0.68929447970898283</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="58">
         <f t="shared" si="2"/>
         <v>4585.663333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="68">
         <v>6687.5</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="68">
         <v>4815</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="69">
         <f t="shared" si="0"/>
         <v>-0.28000000000000003</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="65">
         <v>26775</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="65">
         <v>16952.509999999998</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="68">
         <f t="shared" si="1"/>
         <v>-0.36685303454715223</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="58">
         <f t="shared" si="2"/>
         <v>1605</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="68">
         <v>2823.25</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="68">
         <v>2540.9299999999998</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="69">
         <f t="shared" si="0"/>
         <v>-9.9998228991410643E-2</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
+      <c r="E18" s="65"/>
+      <c r="F18" s="65">
         <v>8993.26</v>
       </c>
-      <c r="G18" s="10" t="e">
+      <c r="G18" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="58">
         <f t="shared" si="2"/>
         <v>846.97666666666657</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="68">
         <v>1760.77</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="68">
         <v>1584.68</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="69">
         <f t="shared" si="0"/>
         <v>-0.10000738313351543</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5">
+      <c r="E19" s="65"/>
+      <c r="F19" s="65">
         <v>5646.37</v>
       </c>
-      <c r="G19" s="10" t="e">
+      <c r="G19" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="58">
         <f t="shared" si="2"/>
         <v>528.22666666666669</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+    <row r="20" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="65">
         <v>190</v>
       </c>
-      <c r="F20" s="46">
-        <v>250</v>
-      </c>
-      <c r="G20" s="39">
+      <c r="F20" s="79">
+        <v>250</v>
+      </c>
+      <c r="G20" s="68">
         <f t="shared" si="1"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I20" s="41">
+      <c r="H20" s="49"/>
+      <c r="I20" s="58">
         <f>+F20/12</f>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="65">
         <v>190</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="79">
         <v>150</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="68">
         <f t="shared" ref="G21:G62" si="3">+(F21/E21)-1</f>
         <v>-0.21052631578947367</v>
       </c>
-      <c r="I21" s="41">
+      <c r="H21" s="49"/>
+      <c r="I21" s="58">
         <f t="shared" ref="I21:I62" si="4">+F21/12</f>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41">
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="65">
         <v>190</v>
       </c>
-      <c r="F22" s="46">
-        <v>250</v>
-      </c>
-      <c r="G22" s="39">
+      <c r="F22" s="79">
+        <v>250</v>
+      </c>
+      <c r="G22" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I22" s="41">
+      <c r="H22" s="49"/>
+      <c r="I22" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="65">
         <v>190</v>
       </c>
-      <c r="F23" s="46">
-        <v>250</v>
-      </c>
-      <c r="G23" s="39">
+      <c r="F23" s="79">
+        <v>250</v>
+      </c>
+      <c r="G23" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I23" s="41">
+      <c r="H23" s="49"/>
+      <c r="I23" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="65">
         <v>190</v>
       </c>
-      <c r="F24" s="46">
-        <v>250</v>
-      </c>
-      <c r="G24" s="39">
+      <c r="F24" s="79">
+        <v>250</v>
+      </c>
+      <c r="G24" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I24" s="41">
+      <c r="H24" s="49"/>
+      <c r="I24" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41">
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="65">
         <v>190</v>
       </c>
-      <c r="F25" s="46">
-        <v>250</v>
-      </c>
-      <c r="G25" s="39">
+      <c r="F25" s="79">
+        <v>250</v>
+      </c>
+      <c r="G25" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I25" s="41">
+      <c r="H25" s="49"/>
+      <c r="I25" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="65">
         <v>190</v>
       </c>
-      <c r="F26" s="46">
-        <v>250</v>
-      </c>
-      <c r="G26" s="39">
+      <c r="F26" s="79">
+        <v>250</v>
+      </c>
+      <c r="G26" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I26" s="41">
+      <c r="H26" s="49"/>
+      <c r="I26" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="65">
         <v>190</v>
       </c>
-      <c r="F27" s="46">
-        <v>250</v>
-      </c>
-      <c r="G27" s="39">
+      <c r="F27" s="79">
+        <v>250</v>
+      </c>
+      <c r="G27" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I27" s="41">
+      <c r="H27" s="49"/>
+      <c r="I27" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41">
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="65">
         <v>190</v>
       </c>
-      <c r="F28" s="46">
-        <v>250</v>
-      </c>
-      <c r="G28" s="39">
+      <c r="F28" s="79">
+        <v>250</v>
+      </c>
+      <c r="G28" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I28" s="41">
+      <c r="H28" s="49"/>
+      <c r="I28" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+    </row>
+    <row r="29" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="65">
         <v>190</v>
       </c>
-      <c r="F29" s="46">
-        <v>250</v>
-      </c>
-      <c r="G29" s="39">
+      <c r="F29" s="79">
+        <v>250</v>
+      </c>
+      <c r="G29" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I29" s="41">
+      <c r="H29" s="49"/>
+      <c r="I29" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+    </row>
+    <row r="30" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="65">
         <v>190</v>
       </c>
-      <c r="F30" s="46">
-        <v>250</v>
-      </c>
-      <c r="G30" s="39">
+      <c r="F30" s="79">
+        <v>250</v>
+      </c>
+      <c r="G30" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I30" s="41">
+      <c r="H30" s="49"/>
+      <c r="I30" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+    </row>
+    <row r="31" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="41">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="65">
         <v>190</v>
       </c>
-      <c r="F31" s="46">
-        <v>250</v>
-      </c>
-      <c r="G31" s="39">
+      <c r="F31" s="79">
+        <v>250</v>
+      </c>
+      <c r="G31" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I31" s="41">
+      <c r="H31" s="49"/>
+      <c r="I31" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+    </row>
+    <row r="32" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41">
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="65">
         <v>190</v>
       </c>
-      <c r="F32" s="46">
-        <v>250</v>
-      </c>
-      <c r="G32" s="39">
+      <c r="F32" s="79">
+        <v>250</v>
+      </c>
+      <c r="G32" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I32" s="41">
+      <c r="H32" s="49"/>
+      <c r="I32" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+    </row>
+    <row r="33" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41">
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="65">
         <v>190</v>
       </c>
-      <c r="F33" s="46">
-        <v>250</v>
-      </c>
-      <c r="G33" s="39">
+      <c r="F33" s="79">
+        <v>250</v>
+      </c>
+      <c r="G33" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I33" s="41">
+      <c r="H33" s="49"/>
+      <c r="I33" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+    </row>
+    <row r="34" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41">
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="65">
         <v>190</v>
       </c>
-      <c r="F34" s="46">
-        <v>250</v>
-      </c>
-      <c r="G34" s="39">
+      <c r="F34" s="79">
+        <v>250</v>
+      </c>
+      <c r="G34" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I34" s="41">
+      <c r="H34" s="49"/>
+      <c r="I34" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+    </row>
+    <row r="35" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41">
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="65">
         <v>190</v>
       </c>
-      <c r="F35" s="46">
-        <v>250</v>
-      </c>
-      <c r="G35" s="39">
+      <c r="F35" s="79">
+        <v>250</v>
+      </c>
+      <c r="G35" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I35" s="41">
+      <c r="H35" s="49"/>
+      <c r="I35" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+    </row>
+    <row r="36" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41">
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="65">
         <v>190</v>
       </c>
-      <c r="F36" s="46">
-        <v>250</v>
-      </c>
-      <c r="G36" s="39">
+      <c r="F36" s="79">
+        <v>250</v>
+      </c>
+      <c r="G36" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I36" s="41">
+      <c r="H36" s="49"/>
+      <c r="I36" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="s">
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+    </row>
+    <row r="37" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41">
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="65">
         <v>190</v>
       </c>
-      <c r="F37" s="46">
-        <v>250</v>
-      </c>
-      <c r="G37" s="39">
+      <c r="F37" s="79">
+        <v>250</v>
+      </c>
+      <c r="G37" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I37" s="41">
+      <c r="H37" s="49"/>
+      <c r="I37" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+    </row>
+    <row r="38" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41">
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="65">
         <v>190</v>
       </c>
-      <c r="F38" s="46">
-        <v>250</v>
-      </c>
-      <c r="G38" s="39">
+      <c r="F38" s="79">
+        <v>250</v>
+      </c>
+      <c r="G38" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I38" s="41">
+      <c r="H38" s="49"/>
+      <c r="I38" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+    </row>
+    <row r="39" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41">
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="65">
         <v>190</v>
       </c>
-      <c r="F39" s="46">
-        <v>250</v>
-      </c>
-      <c r="G39" s="39">
+      <c r="F39" s="79">
+        <v>250</v>
+      </c>
+      <c r="G39" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I39" s="41">
+      <c r="H39" s="49"/>
+      <c r="I39" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="38" t="s">
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+    </row>
+    <row r="40" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41">
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="65">
         <v>190</v>
       </c>
-      <c r="F40" s="46">
-        <v>250</v>
-      </c>
-      <c r="G40" s="39">
+      <c r="F40" s="79">
+        <v>250</v>
+      </c>
+      <c r="G40" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I40" s="41">
+      <c r="H40" s="49"/>
+      <c r="I40" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="38" t="s">
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+    </row>
+    <row r="41" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41">
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="65">
         <v>190</v>
       </c>
-      <c r="F41" s="46">
-        <v>250</v>
-      </c>
-      <c r="G41" s="39">
+      <c r="F41" s="79">
+        <v>250</v>
+      </c>
+      <c r="G41" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I41" s="41">
+      <c r="H41" s="49"/>
+      <c r="I41" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+    </row>
+    <row r="42" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41">
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="65">
         <v>190</v>
       </c>
-      <c r="F42" s="46">
-        <v>250</v>
-      </c>
-      <c r="G42" s="39">
+      <c r="F42" s="79">
+        <v>250</v>
+      </c>
+      <c r="G42" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I42" s="41">
+      <c r="H42" s="49"/>
+      <c r="I42" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="38" t="s">
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+    </row>
+    <row r="43" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41">
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="65">
         <v>190</v>
       </c>
-      <c r="F43" s="46">
-        <v>250</v>
-      </c>
-      <c r="G43" s="39">
+      <c r="F43" s="79">
+        <v>250</v>
+      </c>
+      <c r="G43" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I43" s="41">
+      <c r="H43" s="49"/>
+      <c r="I43" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+    </row>
+    <row r="44" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41">
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="65">
         <v>190</v>
       </c>
-      <c r="F44" s="46">
-        <v>250</v>
-      </c>
-      <c r="G44" s="39">
+      <c r="F44" s="79">
+        <v>250</v>
+      </c>
+      <c r="G44" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I44" s="41">
+      <c r="H44" s="49"/>
+      <c r="I44" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="s">
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+    </row>
+    <row r="45" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="41">
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="65">
         <v>190</v>
       </c>
-      <c r="F45" s="46">
-        <v>250</v>
-      </c>
-      <c r="G45" s="39">
+      <c r="F45" s="79">
+        <v>250</v>
+      </c>
+      <c r="G45" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I45" s="41">
+      <c r="H45" s="49"/>
+      <c r="I45" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="38" t="s">
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+    </row>
+    <row r="46" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41">
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="65">
         <v>190</v>
       </c>
-      <c r="F46" s="46">
-        <v>250</v>
-      </c>
-      <c r="G46" s="39">
+      <c r="F46" s="79">
+        <v>250</v>
+      </c>
+      <c r="G46" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I46" s="41">
+      <c r="H46" s="49"/>
+      <c r="I46" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+    </row>
+    <row r="47" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="41">
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="65">
         <v>190</v>
       </c>
-      <c r="F47" s="46">
-        <v>250</v>
-      </c>
-      <c r="G47" s="39">
+      <c r="F47" s="79">
+        <v>250</v>
+      </c>
+      <c r="G47" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I47" s="41">
+      <c r="H47" s="49"/>
+      <c r="I47" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="38" t="s">
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+    </row>
+    <row r="48" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41">
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="65">
         <v>190</v>
       </c>
-      <c r="F48" s="46">
-        <v>250</v>
-      </c>
-      <c r="G48" s="39">
+      <c r="F48" s="79">
+        <v>250</v>
+      </c>
+      <c r="G48" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I48" s="41">
+      <c r="H48" s="49"/>
+      <c r="I48" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+    </row>
+    <row r="49" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="41">
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="65">
         <v>190</v>
       </c>
-      <c r="F49" s="46">
-        <v>250</v>
-      </c>
-      <c r="G49" s="39">
+      <c r="F49" s="79">
+        <v>250</v>
+      </c>
+      <c r="G49" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I49" s="41">
+      <c r="H49" s="49"/>
+      <c r="I49" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="38" t="s">
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+    </row>
+    <row r="50" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41">
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="65">
         <v>190</v>
       </c>
-      <c r="F50" s="46">
-        <v>250</v>
-      </c>
-      <c r="G50" s="39">
+      <c r="F50" s="79">
+        <v>250</v>
+      </c>
+      <c r="G50" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I50" s="41">
+      <c r="H50" s="49"/>
+      <c r="I50" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="38" t="s">
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+    </row>
+    <row r="51" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41">
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="65">
         <v>190</v>
       </c>
-      <c r="F51" s="46">
-        <v>250</v>
-      </c>
-      <c r="G51" s="39">
+      <c r="F51" s="79">
+        <v>250</v>
+      </c>
+      <c r="G51" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I51" s="41">
+      <c r="H51" s="49"/>
+      <c r="I51" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+    </row>
+    <row r="52" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41">
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="65">
         <v>190</v>
       </c>
-      <c r="F52" s="46">
-        <v>250</v>
-      </c>
-      <c r="G52" s="39">
+      <c r="F52" s="79">
+        <v>250</v>
+      </c>
+      <c r="G52" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I52" s="41">
+      <c r="H52" s="49"/>
+      <c r="I52" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="s">
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+    </row>
+    <row r="53" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="41">
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="65">
         <v>190</v>
       </c>
-      <c r="F53" s="46">
-        <v>250</v>
-      </c>
-      <c r="G53" s="39">
+      <c r="F53" s="79">
+        <v>250</v>
+      </c>
+      <c r="G53" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I53" s="41">
+      <c r="H53" s="49"/>
+      <c r="I53" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="38" t="s">
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+    </row>
+    <row r="54" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41">
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="65">
         <v>190</v>
       </c>
-      <c r="F54" s="46">
-        <v>250</v>
-      </c>
-      <c r="G54" s="39">
+      <c r="F54" s="79">
+        <v>250</v>
+      </c>
+      <c r="G54" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I54" s="41">
+      <c r="H54" s="49"/>
+      <c r="I54" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="38" t="s">
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+    </row>
+    <row r="55" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="41">
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="65">
         <v>190</v>
       </c>
-      <c r="F55" s="46">
-        <v>250</v>
-      </c>
-      <c r="G55" s="39">
+      <c r="F55" s="79">
+        <v>250</v>
+      </c>
+      <c r="G55" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I55" s="41">
+      <c r="H55" s="49"/>
+      <c r="I55" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="38" t="s">
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+    </row>
+    <row r="56" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="41">
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="65">
         <v>190</v>
       </c>
-      <c r="F56" s="46">
-        <v>250</v>
-      </c>
-      <c r="G56" s="39">
+      <c r="F56" s="79">
+        <v>250</v>
+      </c>
+      <c r="G56" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I56" s="41">
+      <c r="H56" s="49"/>
+      <c r="I56" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="38" t="s">
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+    </row>
+    <row r="57" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="41">
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="65">
         <v>190</v>
       </c>
-      <c r="F57" s="46">
-        <v>250</v>
-      </c>
-      <c r="G57" s="39">
+      <c r="F57" s="79">
+        <v>250</v>
+      </c>
+      <c r="G57" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I57" s="41">
+      <c r="H57" s="49"/>
+      <c r="I57" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="s">
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+    </row>
+    <row r="58" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="41">
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="65">
         <v>190</v>
       </c>
-      <c r="F58" s="46">
-        <v>250</v>
-      </c>
-      <c r="G58" s="39">
+      <c r="F58" s="79">
+        <v>250</v>
+      </c>
+      <c r="G58" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I58" s="41">
+      <c r="H58" s="49"/>
+      <c r="I58" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="38" t="s">
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+    </row>
+    <row r="59" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="41">
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="65">
         <v>190</v>
       </c>
-      <c r="F59" s="46">
-        <v>250</v>
-      </c>
-      <c r="G59" s="39">
+      <c r="F59" s="79">
+        <v>250</v>
+      </c>
+      <c r="G59" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I59" s="41">
+      <c r="H59" s="49"/>
+      <c r="I59" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="38" t="s">
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+    </row>
+    <row r="60" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41">
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="65">
         <v>190</v>
       </c>
-      <c r="F60" s="46">
-        <v>250</v>
-      </c>
-      <c r="G60" s="39">
+      <c r="F60" s="79">
+        <v>250</v>
+      </c>
+      <c r="G60" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I60" s="41">
+      <c r="H60" s="49"/>
+      <c r="I60" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="38" t="s">
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+    </row>
+    <row r="61" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41">
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="65">
         <v>190</v>
       </c>
-      <c r="F61" s="46">
-        <v>250</v>
-      </c>
-      <c r="G61" s="39">
+      <c r="F61" s="79">
+        <v>250</v>
+      </c>
+      <c r="G61" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I61" s="41">
+      <c r="H61" s="49"/>
+      <c r="I61" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="38" t="s">
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+    </row>
+    <row r="62" spans="1:26" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41">
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="65">
         <v>190</v>
       </c>
-      <c r="F62" s="46">
-        <v>250</v>
-      </c>
-      <c r="G62" s="39">
+      <c r="F62" s="79">
+        <v>250</v>
+      </c>
+      <c r="G62" s="68">
         <f t="shared" si="3"/>
         <v>0.31578947368421062</v>
       </c>
-      <c r="I62" s="41">
+      <c r="H62" s="49"/>
+      <c r="I62" s="58">
         <f t="shared" si="4"/>
         <v>20.833333333333332</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="48" t="s">
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+    </row>
+    <row r="63" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="49">
+      <c r="B63" s="68">
         <v>3852</v>
       </c>
-      <c r="C63" s="51">
+      <c r="C63" s="70">
         <v>8638.11</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="69">
         <f t="shared" si="0"/>
         <v>1.2425000000000002</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="65">
         <v>13507</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="65">
         <v>30333.38</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="68">
         <f t="shared" si="1"/>
         <v>1.2457525727400607</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63" s="58">
         <f t="shared" si="2"/>
         <v>2879.3700000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="48" t="s">
+    <row r="64" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="68">
         <v>397.97</v>
       </c>
-      <c r="C64" s="51">
+      <c r="C64" s="70">
         <v>1186.93</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="69">
         <f t="shared" si="0"/>
         <v>1.9824609895218233</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="65">
         <v>1417.88</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="65">
         <v>4254.24</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="68">
         <f t="shared" si="1"/>
         <v>2.0004231669816908</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I64" s="58">
         <f t="shared" si="2"/>
         <v>395.64333333333337</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="48" t="s">
+      <c r="A65" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="49">
+      <c r="B65" s="68">
         <v>397.97</v>
       </c>
-      <c r="C65" s="51">
+      <c r="C65" s="70">
         <v>1186.93</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="69">
         <f t="shared" si="0"/>
         <v>1.9824609895218233</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="65">
         <v>1417.88</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="65">
         <v>4254.24</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="68">
         <f t="shared" si="1"/>
         <v>2.0004231669816908</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="58">
         <f t="shared" si="2"/>
         <v>395.64333333333337</v>
       </c>
@@ -2927,114 +3821,114 @@
       <c r="A66" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="36">
+      <c r="B66" s="68">
         <v>5834.5</v>
       </c>
-      <c r="C66" s="36">
+      <c r="C66" s="68">
         <v>7682.17</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="69">
         <f t="shared" si="0"/>
         <v>0.31668009255291807</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="65">
         <v>20445.740000000002</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="65">
         <v>26987.61</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="68">
         <f t="shared" si="1"/>
         <v>0.31996249585488212</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="58">
         <f t="shared" si="2"/>
         <v>2560.7233333333334</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="49">
+      <c r="B67" s="68">
         <v>585.27</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="70">
         <v>2823.27</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="69">
         <f t="shared" ref="D67:D82" si="5">+(C67/B67)-1</f>
         <v>3.8238761597211548</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="65">
         <v>2073.41</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="65">
         <v>9981.43</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G67" s="68">
         <f t="shared" ref="G67:G82" si="6">+(F67/E67)-1</f>
         <v>3.8140165235047583</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I67" s="58">
         <f t="shared" ref="I67:I82" si="7">+C67*4/12</f>
         <v>941.09</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="49">
+      <c r="B68" s="68">
         <v>775.16</v>
       </c>
-      <c r="C68" s="51">
+      <c r="C68" s="70">
         <v>2823.47</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="69">
         <f t="shared" si="5"/>
         <v>2.6424351101708035</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="65">
         <v>2738.02</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="65">
         <v>9981.43</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="68">
         <f t="shared" si="6"/>
         <v>2.6454919978670719</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I68" s="58">
         <f t="shared" si="7"/>
         <v>941.15666666666664</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="49">
+      <c r="B69" s="68">
         <v>775.16</v>
       </c>
-      <c r="C69" s="51">
+      <c r="C69" s="70">
         <v>2823.47</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="69">
         <f t="shared" si="5"/>
         <v>2.6424351101708035</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="65">
         <v>2738.02</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="65">
         <v>9981.43</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="68">
         <f t="shared" si="6"/>
         <v>2.6454919978670719</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I69" s="58">
         <f t="shared" si="7"/>
         <v>941.15666666666664</v>
       </c>
@@ -3043,56 +3937,56 @@
       <c r="A70" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="36">
+      <c r="B70" s="68">
         <v>6052.35</v>
       </c>
-      <c r="C70" s="36">
+      <c r="C70" s="68">
         <v>7968.72</v>
       </c>
-      <c r="D70" s="37">
+      <c r="D70" s="69">
         <f t="shared" si="5"/>
         <v>0.31663238246301018</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="65">
         <v>21208.22</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="65">
         <v>27990.5</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="68">
         <f t="shared" si="6"/>
         <v>0.31979487198831391</v>
       </c>
-      <c r="I70" s="5">
+      <c r="I70" s="58">
         <f t="shared" si="7"/>
         <v>2656.2400000000002</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="48" t="s">
+      <c r="A71" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B71" s="49">
+      <c r="B71" s="68">
         <v>585.27</v>
       </c>
-      <c r="C71" s="51">
+      <c r="C71" s="70">
         <v>2823.3270000000002</v>
       </c>
-      <c r="D71" s="50">
+      <c r="D71" s="69">
         <f t="shared" si="5"/>
         <v>3.8239735506689225</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="65">
         <v>2073.41</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="65">
         <v>9981.43</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="68">
         <f t="shared" si="6"/>
         <v>3.8140165235047583</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I71" s="58">
         <f t="shared" si="7"/>
         <v>941.10900000000004</v>
       </c>
@@ -3101,114 +3995,114 @@
       <c r="A72" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="36">
+      <c r="B72" s="68">
         <v>621</v>
       </c>
-      <c r="C72" s="36">
+      <c r="C72" s="68">
         <v>1004.16</v>
       </c>
-      <c r="D72" s="37">
+      <c r="D72" s="69">
         <f t="shared" si="5"/>
         <v>0.61700483091787439</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="65">
         <v>2198.5</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="65">
         <v>3614.56</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="68">
         <f t="shared" si="6"/>
         <v>0.64410279736183762</v>
       </c>
-      <c r="I72" s="5">
+      <c r="I72" s="58">
         <f t="shared" si="7"/>
         <v>334.71999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
+      <c r="A73" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="49">
+      <c r="B73" s="68">
         <v>4761.51</v>
       </c>
-      <c r="C73" s="51">
+      <c r="C73" s="70">
         <v>11197.55</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D73" s="69">
         <f t="shared" si="5"/>
         <v>1.3516804543096619</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="65">
         <v>16690.240000000002</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="65">
         <v>39291.440000000002</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="68">
         <f t="shared" si="6"/>
         <v>1.3541566807906897</v>
       </c>
-      <c r="I73" s="5">
+      <c r="I73" s="58">
         <f t="shared" si="7"/>
         <v>3732.5166666666664</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="48" t="s">
+      <c r="A74" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="49">
+      <c r="B74" s="68">
         <v>1146.8800000000001</v>
       </c>
-      <c r="C74" s="51">
+      <c r="C74" s="70">
         <v>4967.6899999999996</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D74" s="69">
         <f t="shared" si="5"/>
         <v>3.3314819335937491</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="65">
         <v>4039.08</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="65">
         <v>17486.91</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="68">
         <f t="shared" si="6"/>
         <v>3.3294289788763782</v>
       </c>
-      <c r="I74" s="5">
+      <c r="I74" s="58">
         <f t="shared" si="7"/>
         <v>1655.8966666666665</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="s">
+      <c r="A75" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="49">
+      <c r="B75" s="68">
         <v>1146.8800000000001</v>
       </c>
-      <c r="C75" s="51">
+      <c r="C75" s="70">
         <v>4967.6899999999996</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D75" s="69">
         <f t="shared" si="5"/>
         <v>3.3314819335937491</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="65">
         <v>4039.08</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="65">
         <v>17486.91</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="68">
         <f t="shared" si="6"/>
         <v>3.3294289788763782</v>
       </c>
-      <c r="I75" s="5">
+      <c r="I75" s="58">
         <f t="shared" si="7"/>
         <v>1655.8966666666665</v>
       </c>
@@ -3217,56 +4111,56 @@
       <c r="A76" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="36">
+      <c r="B76" s="68">
         <v>8820</v>
       </c>
-      <c r="C76" s="36">
+      <c r="C76" s="68">
         <v>8283.94</v>
       </c>
-      <c r="D76" s="37">
+      <c r="D76" s="69">
         <f t="shared" si="5"/>
         <v>-6.0777777777777708E-2</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="65">
         <v>30895</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="65">
         <v>29093.8</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="68">
         <f t="shared" si="6"/>
         <v>-5.8300695905486366E-2</v>
       </c>
-      <c r="I76" s="5">
+      <c r="I76" s="58">
         <f t="shared" si="7"/>
         <v>2761.3133333333335</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
+      <c r="A77" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="49">
+      <c r="B77" s="68">
         <v>1146.8800000000001</v>
       </c>
-      <c r="C77" s="51">
+      <c r="C77" s="70">
         <v>4967.6899999999996</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D77" s="69">
         <f t="shared" si="5"/>
         <v>3.3314819335937491</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="65">
         <v>4039.08</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="65">
         <v>17486.91</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="68">
         <f t="shared" si="6"/>
         <v>3.3294289788763782</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I77" s="58">
         <f t="shared" si="7"/>
         <v>1655.8966666666665</v>
       </c>
@@ -3275,238 +4169,244 @@
       <c r="A78" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B78" s="36">
+      <c r="B78" s="68">
         <v>11025</v>
       </c>
-      <c r="C78" s="36">
+      <c r="C78" s="68">
         <v>8901.69</v>
       </c>
-      <c r="D78" s="37">
+      <c r="D78" s="69">
         <f t="shared" si="5"/>
         <v>-0.19259047619047609</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="65">
         <v>44125</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="65">
         <v>29093.8</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G78" s="68">
         <f t="shared" si="6"/>
         <v>-0.34065042492917852</v>
       </c>
-      <c r="I78" s="5">
+      <c r="I78" s="58">
         <f t="shared" si="7"/>
         <v>2967.23</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
+      <c r="A79" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B79" s="49">
+      <c r="B79" s="68">
         <v>1005</v>
       </c>
-      <c r="C79" s="51">
+      <c r="C79" s="70">
         <v>3451.12</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D79" s="69">
         <f t="shared" si="5"/>
         <v>2.433950248756219</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="65">
         <v>3542.49</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="65">
         <v>12178.91</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="68">
         <f t="shared" si="6"/>
         <v>2.437951836137858</v>
       </c>
-      <c r="I79" s="5">
+      <c r="I79" s="58">
         <f t="shared" si="7"/>
         <v>1150.3733333333332</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="48" t="s">
+      <c r="A80" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="49">
+      <c r="B80" s="68">
         <v>1146.8800000000001</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="70">
         <v>4967.6899999999996</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D80" s="69">
         <f t="shared" si="5"/>
         <v>3.3314819335937491</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="65">
         <v>4039.08</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="65">
         <v>17486.91</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="68">
         <f t="shared" si="6"/>
         <v>3.3294289788763782</v>
       </c>
-      <c r="I80" s="5">
+      <c r="I80" s="58">
         <f t="shared" si="7"/>
         <v>1655.8966666666665</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="48" t="s">
+      <c r="A81" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="49">
+      <c r="B81" s="68">
         <v>1146.8800000000001</v>
       </c>
-      <c r="C81" s="51">
+      <c r="C81" s="70">
         <v>4967.6899999999996</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D81" s="69">
         <f t="shared" si="5"/>
         <v>3.3314819335937491</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="65">
         <v>4039.08</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="65">
         <v>17486.91</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="68">
         <f t="shared" si="6"/>
         <v>3.3294289788763782</v>
       </c>
-      <c r="I81" s="5">
+      <c r="I81" s="58">
         <f t="shared" si="7"/>
         <v>1655.8966666666665</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B82" s="49">
+      <c r="B82" s="68">
         <v>1158.71</v>
       </c>
-      <c r="C82" s="51">
+      <c r="C82" s="70">
         <v>6717.63</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D82" s="69">
         <f t="shared" si="5"/>
         <v>4.7975075730769561</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="65">
         <v>4080.46</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="65">
         <v>23611.7</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="68">
         <f t="shared" si="6"/>
         <v>4.7865289697730162</v>
       </c>
-      <c r="I82" s="5">
+      <c r="I82" s="58">
         <f t="shared" si="7"/>
         <v>2239.21</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="63">
         <f>SUM(B2:B82)</f>
         <v>131683.45000000004</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="3">
+      <c r="C83" s="63"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="63">
         <f>SUM(E2:E82)</f>
         <v>464792.70000000013</v>
       </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="19"/>
-      <c r="F84" s="47">
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="I83" s="71"/>
+    </row>
+    <row r="84" spans="1:9" s="49" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="72"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="60"/>
+      <c r="F84" s="61">
         <f>SUBTOTAL(9,F2:F83)</f>
         <v>808626.24000000046</v>
       </c>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B85" s="4"/>
-      <c r="C85" s="44">
+      <c r="G84" s="52"/>
+      <c r="I84" s="77"/>
+    </row>
+    <row r="85" spans="1:9" s="49" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="72"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="62">
         <f>SUBTOTAL(9,C2:C84)</f>
         <v>227468.60800000001</v>
       </c>
-      <c r="D85" s="19"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="20"/>
-      <c r="G86" s="13"/>
+      <c r="D85" s="60"/>
+      <c r="G85" s="52"/>
+      <c r="I85" s="77"/>
+    </row>
+    <row r="86" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="72"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="60"/>
+      <c r="G86" s="52"/>
+      <c r="I86" s="77"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="20"/>
-      <c r="G87" s="13"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="60"/>
+      <c r="G87" s="52"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="4"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="52"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="4"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="52"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="19"/>
-      <c r="G90" s="4"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="60"/>
+      <c r="G90" s="52"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="19"/>
-      <c r="G91" s="4"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="60"/>
+      <c r="G91" s="52"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="19"/>
-      <c r="G92" s="4"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="60"/>
+      <c r="G92" s="52"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="19"/>
-      <c r="G93" s="4"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="60"/>
+      <c r="G93" s="52"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B85"/>
+  <autoFilter ref="A1:B85" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="120" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3514,18 +4414,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -3544,7 +4444,7 @@
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="47">
         <v>7935</v>
       </c>
       <c r="C2" s="8"/>
@@ -3553,7 +4453,7 @@
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="48">
         <v>3907.16</v>
       </c>
       <c r="C3" s="8"/>
@@ -3562,7 +4462,7 @@
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="47">
         <v>3907.16</v>
       </c>
       <c r="C4" s="8"/>
@@ -3571,7 +4471,7 @@
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="47">
         <v>3166.68</v>
       </c>
       <c r="C5" s="8"/>
@@ -3580,7 +4480,7 @@
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="8">
         <v>250</v>
       </c>
@@ -3589,7 +4489,7 @@
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="8">
         <v>150</v>
       </c>
@@ -3598,7 +4498,7 @@
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="47">
         <v>12797.2</v>
       </c>
       <c r="C8" s="8"/>
@@ -3607,7 +4507,7 @@
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="47">
         <v>12797.200999999999</v>
       </c>
       <c r="C9" s="8"/>
@@ -3616,7 +4516,7 @@
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="47">
         <v>12797.2</v>
       </c>
       <c r="C10" s="8"/>
@@ -3625,7 +4525,7 @@
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="47">
         <v>12797.2</v>
       </c>
       <c r="C11" s="8"/>
@@ -3634,7 +4534,7 @@
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="47">
         <v>1821.77</v>
       </c>
       <c r="C12" s="8"/>
@@ -3643,7 +4543,7 @@
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="47">
         <v>2979.52</v>
       </c>
       <c r="C13" s="8"/>
@@ -3652,7 +4552,7 @@
       <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="47">
         <v>13756.99</v>
       </c>
       <c r="C14" s="8"/>
@@ -3661,7 +4561,7 @@
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="47">
         <v>13756.99</v>
       </c>
       <c r="C15" s="8"/>
@@ -3670,7 +4570,7 @@
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="47">
         <v>13756.99</v>
       </c>
       <c r="C16" s="8"/>
@@ -3679,7 +4579,7 @@
       <c r="A17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="47">
         <v>4815</v>
       </c>
       <c r="C17" s="8"/>
@@ -3688,7 +4588,7 @@
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="47">
         <v>2540.9299999999998</v>
       </c>
       <c r="C18" s="8"/>
@@ -3697,7 +4597,7 @@
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="56">
+      <c r="B19" s="47">
         <v>1584.68</v>
       </c>
       <c r="C19" s="8"/>
@@ -3706,7 +4606,7 @@
       <c r="A20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="56">
+      <c r="B20" s="47">
         <v>11523.18</v>
       </c>
       <c r="C20" s="8"/>
@@ -3715,7 +4615,7 @@
       <c r="A21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="56">
+      <c r="B21" s="47">
         <v>12092.19</v>
       </c>
       <c r="C21" s="8"/>
@@ -3724,14 +4624,14 @@
       <c r="A22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="52"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="52"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="8">
         <v>250</v>
       </c>
@@ -3740,7 +4640,7 @@
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="52"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="8">
         <v>150</v>
       </c>
@@ -3749,7 +4649,7 @@
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="52"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="8">
         <v>250</v>
       </c>
@@ -3758,7 +4658,7 @@
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="52"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="8">
         <v>250</v>
       </c>
@@ -3767,7 +4667,7 @@
       <c r="A27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="52"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="8">
         <v>250</v>
       </c>
@@ -3776,7 +4676,7 @@
       <c r="A28" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="52"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="8">
         <v>250</v>
       </c>
@@ -3785,7 +4685,7 @@
       <c r="A29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="52"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="8">
         <v>250</v>
       </c>
@@ -3794,7 +4694,7 @@
       <c r="A30" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="52"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="8">
         <v>250</v>
       </c>
@@ -3803,7 +4703,7 @@
       <c r="A31" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="52"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="8">
         <v>250</v>
       </c>
@@ -3812,7 +4712,7 @@
       <c r="A32" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="52"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="8">
         <v>250</v>
       </c>
@@ -3821,7 +4721,7 @@
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="52"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="8">
         <v>250</v>
       </c>
@@ -3830,7 +4730,7 @@
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="52"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="8">
         <v>250</v>
       </c>
@@ -3839,7 +4739,7 @@
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="52"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="8">
         <v>250</v>
       </c>
@@ -3848,7 +4748,7 @@
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="52"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="8">
         <v>250</v>
       </c>
@@ -3857,7 +4757,7 @@
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="52"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="8">
         <v>250</v>
       </c>
@@ -3866,7 +4766,7 @@
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="8">
         <v>250</v>
       </c>
@@ -3875,7 +4775,7 @@
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="52"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="8">
         <v>250</v>
       </c>
@@ -3884,7 +4784,7 @@
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="52"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="8">
         <v>250</v>
       </c>
@@ -3893,7 +4793,7 @@
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="52"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="8">
         <v>250</v>
       </c>
@@ -3902,7 +4802,7 @@
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="52"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="8">
         <v>250</v>
       </c>
@@ -3911,7 +4811,7 @@
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="52"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="8">
         <v>250</v>
       </c>
@@ -3920,7 +4820,7 @@
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="52"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="8">
         <v>250</v>
       </c>
@@ -3929,7 +4829,7 @@
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="52"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="8">
         <v>250</v>
       </c>
@@ -3938,7 +4838,7 @@
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="52"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="8">
         <v>250</v>
       </c>
@@ -3947,7 +4847,7 @@
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="52"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="8">
         <v>250</v>
       </c>
@@ -3956,7 +4856,7 @@
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="52"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="8">
         <v>250</v>
       </c>
@@ -3965,7 +4865,7 @@
       <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="52"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="8">
         <v>250</v>
       </c>
@@ -3974,7 +4874,7 @@
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="52"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="8">
         <v>250</v>
       </c>
@@ -3983,7 +4883,7 @@
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="52"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="8">
         <v>250</v>
       </c>
@@ -3992,7 +4892,7 @@
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="52"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="8">
         <v>250</v>
       </c>
@@ -4001,7 +4901,7 @@
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="52"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="8">
         <v>250</v>
       </c>
@@ -4010,7 +4910,7 @@
       <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="52"/>
+      <c r="B54" s="46"/>
       <c r="C54" s="8">
         <v>250</v>
       </c>
@@ -4019,7 +4919,7 @@
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="52"/>
+      <c r="B55" s="46"/>
       <c r="C55" s="8">
         <v>250</v>
       </c>
@@ -4028,7 +4928,7 @@
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="52"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="8">
         <v>250</v>
       </c>
@@ -4037,7 +4937,7 @@
       <c r="A57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="52"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="8">
         <v>250</v>
       </c>
@@ -4046,7 +4946,7 @@
       <c r="A58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="52"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="8">
         <v>250</v>
       </c>
@@ -4055,7 +4955,7 @@
       <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="52"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="8">
         <v>250</v>
       </c>
@@ -4064,7 +4964,7 @@
       <c r="A60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="52"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="8">
         <v>250</v>
       </c>
@@ -4073,7 +4973,7 @@
       <c r="A61" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="52"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="8">
         <v>250</v>
       </c>
@@ -4082,7 +4982,7 @@
       <c r="A62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="52"/>
+      <c r="B62" s="46"/>
       <c r="C62" s="8">
         <v>250</v>
       </c>
@@ -4091,7 +4991,7 @@
       <c r="A63" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="52"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="8">
         <v>250</v>
       </c>
@@ -4100,7 +5000,7 @@
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="52"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="8">
         <v>250</v>
       </c>
@@ -4109,7 +5009,7 @@
       <c r="A65" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="52"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="8">
         <v>250</v>
       </c>
@@ -4118,7 +5018,7 @@
       <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="56">
+      <c r="B66" s="47">
         <v>8638.11</v>
       </c>
       <c r="C66" s="8"/>
@@ -4127,7 +5027,7 @@
       <c r="A67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="56">
+      <c r="B67" s="47">
         <v>1186.93</v>
       </c>
       <c r="C67" s="8"/>
@@ -4136,7 +5036,7 @@
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="56">
+      <c r="B68" s="47">
         <v>1186.93</v>
       </c>
       <c r="C68" s="8"/>
@@ -4145,7 +5045,7 @@
       <c r="A69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="56">
+      <c r="B69" s="47">
         <v>7682.17</v>
       </c>
       <c r="C69" s="8"/>
@@ -4154,7 +5054,7 @@
       <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="56">
+      <c r="B70" s="47">
         <v>2823.27</v>
       </c>
       <c r="C70" s="8"/>
@@ -4163,7 +5063,7 @@
       <c r="A71" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="56">
+      <c r="B71" s="47">
         <v>2823.27</v>
       </c>
       <c r="C71" s="8"/>
@@ -4172,7 +5072,7 @@
       <c r="A72" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="56">
+      <c r="B72" s="47">
         <v>2823.27</v>
       </c>
       <c r="C72" s="8"/>
@@ -4181,7 +5081,7 @@
       <c r="A73" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="57">
+      <c r="B73" s="48">
         <v>7968.72</v>
       </c>
       <c r="C73" s="8"/>
@@ -4190,7 +5090,7 @@
       <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B74" s="57">
+      <c r="B74" s="48">
         <v>2823.27</v>
       </c>
       <c r="C74" s="8"/>
@@ -4199,7 +5099,7 @@
       <c r="A75" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="57">
+      <c r="B75" s="48">
         <v>1004.16</v>
       </c>
       <c r="C75" s="8"/>
@@ -4208,7 +5108,7 @@
       <c r="A76" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="57">
+      <c r="B76" s="48">
         <v>11197.55</v>
       </c>
       <c r="C76" s="8"/>
@@ -4217,7 +5117,7 @@
       <c r="A77" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="57">
+      <c r="B77" s="48">
         <v>4967.6899999999996</v>
       </c>
       <c r="C77" s="8"/>
@@ -4226,7 +5126,7 @@
       <c r="A78" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B78" s="57">
+      <c r="B78" s="48">
         <v>4967.6899999999996</v>
       </c>
       <c r="C78" s="8"/>
@@ -4235,7 +5135,7 @@
       <c r="A79" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="57">
+      <c r="B79" s="48">
         <v>8283.94</v>
       </c>
       <c r="C79" s="8"/>
@@ -4244,7 +5144,7 @@
       <c r="A80" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B80" s="57">
+      <c r="B80" s="48">
         <v>4967.6899999999996</v>
       </c>
       <c r="C80" s="8"/>
@@ -4253,7 +5153,7 @@
       <c r="A81" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B81" s="57">
+      <c r="B81" s="48">
         <v>8283.94</v>
       </c>
       <c r="C81" s="8"/>
@@ -4262,7 +5162,7 @@
       <c r="A82" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B82" s="57">
+      <c r="B82" s="48">
         <v>3451.12</v>
       </c>
       <c r="C82" s="8"/>
@@ -4271,7 +5171,7 @@
       <c r="A83" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B83" s="57">
+      <c r="B83" s="48">
         <v>4967.6899999999996</v>
       </c>
       <c r="C83" s="8"/>
@@ -4280,7 +5180,7 @@
       <c r="A84" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B84" s="57">
+      <c r="B84" s="48">
         <v>4967.6899999999996</v>
       </c>
       <c r="C84" s="8"/>
@@ -4289,56 +5189,56 @@
       <c r="A85" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B85" s="57">
+      <c r="B85" s="48">
         <v>6717.63</v>
       </c>
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="54" t="s">
         <v>50</v>
       </c>
       <c r="B86" s="55">
         <f>SUM(B2:B85)</f>
         <v>250465.77099999998</v>
       </c>
-      <c r="C86" s="53">
+      <c r="C86" s="56">
         <f>SUM(C2:C85)</f>
         <v>11050</v>
       </c>
-      <c r="D86" s="54"/>
+      <c r="D86" s="57"/>
     </row>
     <row r="87" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
-      <c r="C87" s="47"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="56">
+      <c r="C87" s="45"/>
+    </row>
+    <row r="88" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="50">
         <f>+B2+B4+B5+B8+B9+B10+B11+B12+B13+B14+B15+B16+B17+B18+B19+B20+B21+B66+B67+B68+B69+B70+B71+B72</f>
         <v>171989.83100000001</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="57">
+    <row r="89" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="51">
         <f>+B73+B74+B75+B76+B77+B78+B79+B80+B81+B82+B83+B84+B85+B3</f>
         <v>78475.940000000017</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="49" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="13"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="4">
+    <row r="90" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="52"/>
+    </row>
+    <row r="91" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="52">
         <f>+B86-B88-B89</f>
         <v>0</v>
       </c>
-      <c r="C91" s="6"/>
+      <c r="C91" s="53"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
@@ -4363,7 +5263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -6514,7 +7414,7 @@
       <c r="G93" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I83"/>
+  <autoFilter ref="A1:I83" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="120" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6522,7 +7422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8877,7 +9777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
